--- a/API_endpoint_list.xlsx
+++ b/API_endpoint_list.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Munka\13C_info2\HandyGo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Technikus\Documents\GitHub\HandyGo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BADA8F49-F673-42EC-AF94-217D91B6A404}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C16EE1F-E3ED-4C04-BB46-610A3D064943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E0E4588E-4664-4B85-8DE9-D10EECA0DBCE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E0E4588E-4664-4B85-8DE9-D10EECA0DBCE}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="67">
   <si>
     <t>API elérési út</t>
   </si>
@@ -190,6 +190,54 @@
   </si>
   <si>
     <t>A login és a register API-n kívül mindenhova kötelező a x-auth-token header adat, amit a login API ad visszatérésként</t>
+  </si>
+  <si>
+    <t>admin/login</t>
+  </si>
+  <si>
+    <t>admin/register</t>
+  </si>
+  <si>
+    <t>admin/services</t>
+  </si>
+  <si>
+    <t>admin/services/pending</t>
+  </si>
+  <si>
+    <t>admin/services/:id/approve</t>
+  </si>
+  <si>
+    <t>admin bejelentkezés</t>
+  </si>
+  <si>
+    <t>admin regisztráció</t>
+  </si>
+  <si>
+    <t>elfogadásra váró szolgáltatások</t>
+  </si>
+  <si>
+    <t>szolgáltatás elfogadása</t>
+  </si>
+  <si>
+    <t>admin/services/:id/reject</t>
+  </si>
+  <si>
+    <t>admin/users</t>
+  </si>
+  <si>
+    <t>szolgáltatás elutasítása</t>
+  </si>
+  <si>
+    <t>összes felhasználó lekérése</t>
+  </si>
+  <si>
+    <t>username, password</t>
+  </si>
+  <si>
+    <t>Az admin API-k eléréséhez szükséges a x-admin-auth-token header adat</t>
+  </si>
+  <si>
+    <t>Az admin regisztráció csak admin bejelentkezés után működik</t>
   </si>
 </sst>
 </file>
@@ -232,7 +280,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -459,11 +507,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -481,6 +609,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -795,10 +933,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2337CF4-35BF-4E47-9BF9-5BAF47D2C70E}">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -845,7 +983,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>6</v>
       </c>
@@ -859,8 +997,11 @@
         <v>9</v>
       </c>
       <c r="E3" s="8"/>
-    </row>
-    <row r="4" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="G3" s="16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
         <v>10</v>
       </c>
@@ -874,6 +1015,9 @@
       <c r="E4" s="10" t="s">
         <v>11</v>
       </c>
+      <c r="G4" s="16" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
@@ -1070,18 +1214,117 @@
       <c r="A18" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="C18" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="D18" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="18" t="s">
         <v>11</v>
       </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="23"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="6"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="B21" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="6"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>60</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C25" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" s="3"/>
+      <c r="E25" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/API_endpoint_list.xlsx
+++ b/API_endpoint_list.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Technikus\Documents\GitHub\HandyGo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Munka\13C_info2\HandyGo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C16EE1F-E3ED-4C04-BB46-610A3D064943}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F27FF2-F7A6-4716-A862-3FAFCF74F14C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E0E4588E-4664-4B85-8DE9-D10EECA0DBCE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E0E4588E-4664-4B85-8DE9-D10EECA0DBCE}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="70">
   <si>
     <t>API elérési út</t>
   </si>
@@ -48,9 +48,6 @@
     <t>body adatok</t>
   </si>
   <si>
-    <t>header adatok</t>
-  </si>
-  <si>
     <t>auth/login</t>
   </si>
   <si>
@@ -238,6 +235,18 @@
   </si>
   <si>
     <t>Az admin regisztráció csak admin bejelentkezés után működik</t>
+  </si>
+  <si>
+    <t>Szolgáltatás szűrése távolság alapján</t>
+  </si>
+  <si>
+    <t>paraméter adatok</t>
+  </si>
+  <si>
+    <t>service/:lat/:lon</t>
+  </si>
+  <si>
+    <t>szélesség, hosszúság</t>
   </si>
 </sst>
 </file>
@@ -280,7 +289,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="26">
     <border>
       <left/>
       <right/>
@@ -448,18 +457,61 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -472,7 +524,35 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="medium">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -484,105 +564,84 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thick">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -591,7 +650,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -604,21 +663,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -933,10 +995,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2337CF4-35BF-4E47-9BF9-5BAF47D2C70E}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -945,386 +1007,401 @@
     <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="41.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="14" t="s">
+      <c r="B1" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="15" t="s">
-        <v>3</v>
+      <c r="E1" s="14" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="G2" s="16" t="s">
-        <v>50</v>
+      <c r="G2" s="15" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>7</v>
-      </c>
       <c r="D3" s="4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" s="8"/>
-      <c r="G3" s="16" t="s">
-        <v>65</v>
+      <c r="G3" s="15" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>66</v>
+        <v>10</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="6"/>
     </row>
     <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="E8" s="10"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="6"/>
+      <c r="C9" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="10" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="6" t="s">
-        <v>11</v>
-      </c>
+      <c r="E10" s="6"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>17</v>
-      </c>
+        <v>23</v>
+      </c>
+      <c r="D11" s="1"/>
       <c r="E11" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="C12" s="1" t="s">
+      <c r="B14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D12" s="1"/>
-      <c r="E12" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="7" t="s">
+      <c r="D14" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D13" s="4" t="s">
+      <c r="B15" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D14" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="10"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="E15" s="6" t="s">
-        <v>11</v>
-      </c>
+      <c r="E15" s="10"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D16" s="1"/>
-      <c r="E16" s="6"/>
+      <c r="E16" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="6"/>
     </row>
-    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="11" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" s="17" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="6"/>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="D19" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="E19" s="17" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="21" t="s">
+      <c r="C20" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="E20" s="20"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="B19" s="22" t="s">
+      <c r="B21" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="E21" s="6"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="20" t="s">
-        <v>56</v>
-      </c>
-      <c r="D19" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="E19" s="23"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="B20" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" s="19" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>64</v>
-      </c>
-      <c r="E20" s="6"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="21" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" s="1"/>
-      <c r="E21" s="6"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="21" t="s">
-        <v>54</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>58</v>
+      <c r="C22" s="18" t="s">
+        <v>47</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="6"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="21" t="s">
-        <v>55</v>
+      <c r="A23" s="28" t="s">
+        <v>53</v>
       </c>
       <c r="B23" s="24" t="s">
         <v>44</v>
       </c>
-      <c r="C23" s="19" t="s">
-        <v>59</v>
+      <c r="C23" s="18" t="s">
+        <v>57</v>
       </c>
       <c r="D23" s="1"/>
-      <c r="E23" s="6" t="s">
-        <v>11</v>
-      </c>
+      <c r="E23" s="6"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>60</v>
+      <c r="A24" s="28" t="s">
+        <v>54</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="19" t="s">
-        <v>62</v>
+        <v>43</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>58</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C25" s="18" t="s">
         <v>61</v>
       </c>
-      <c r="B25" s="25" t="s">
-        <v>45</v>
-      </c>
-      <c r="C25" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="12"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C26" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="D26" s="3"/>
+      <c r="E26" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/API_endpoint_list.xlsx
+++ b/API_endpoint_list.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Munka\13C_info2\HandyGo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Technikus\Documents\GitHub\HandyGo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4F27FF2-F7A6-4716-A862-3FAFCF74F14C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EABEF09-69A2-4D12-8CDC-0B2A46BBD25F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E0E4588E-4664-4B85-8DE9-D10EECA0DBCE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E0E4588E-4664-4B85-8DE9-D10EECA0DBCE}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="72">
   <si>
     <t>API elérési út</t>
   </si>
@@ -247,6 +247,12 @@
   </si>
   <si>
     <t>szélesség, hosszúság</t>
+  </si>
+  <si>
+    <t>service/my-services</t>
+  </si>
+  <si>
+    <t>A felhasználó szolgáltatásainak lekérése</t>
   </si>
 </sst>
 </file>
@@ -995,10 +1001,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2337CF4-35BF-4E47-9BF9-5BAF47D2C70E}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1214,194 +1220,207 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="7" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="D14" s="16"/>
+      <c r="E14" s="17"/>
+    </row>
+    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B15" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C15" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D15" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="E14" s="8" t="s">
+      <c r="E15" s="8" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="9" t="s">
+    <row r="16" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="10"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D16" s="1"/>
-      <c r="E16" s="6" t="s">
-        <v>10</v>
-      </c>
+      <c r="E16" s="10"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D17" s="1"/>
-      <c r="E17" s="6"/>
+      <c r="E17" s="6" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D18" s="1"/>
       <c r="E18" s="6"/>
     </row>
-    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="26" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="6"/>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="B19" s="16" t="s">
+      <c r="B20" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="16" t="s">
+      <c r="C20" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="16" t="s">
+      <c r="D20" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="17" t="s">
+      <c r="E20" s="17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="27" t="s">
+    <row r="21" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="B20" s="23" t="s">
+      <c r="B21" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="19" t="s">
+      <c r="C21" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D21" s="19" t="s">
         <v>63</v>
       </c>
-      <c r="E20" s="20"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="B21" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="E21" s="6"/>
+      <c r="E21" s="20"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="28" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="D22" s="1"/>
+        <v>56</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>63</v>
+      </c>
       <c r="E22" s="6"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="28" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B23" s="24" t="s">
         <v>44</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="6"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="6"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="28" t="s">
         <v>54</v>
-      </c>
-      <c r="B24" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="22" t="s">
-        <v>59</v>
       </c>
       <c r="B25" s="24" t="s">
         <v>43</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="29" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="B26" s="25" t="s">
+      <c r="B27" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="21" t="s">
+      <c r="C27" s="21" t="s">
         <v>62</v>
       </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="11"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/API_endpoint_list.xlsx
+++ b/API_endpoint_list.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Technikus\Documents\GitHub\HandyGo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Munka\13C_info2\HandyGo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EABEF09-69A2-4D12-8CDC-0B2A46BBD25F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A495160-372B-46DD-94DA-FFD3EA998441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E0E4588E-4664-4B85-8DE9-D10EECA0DBCE}"/>
+    <workbookView xWindow="1860" yWindow="1860" windowWidth="21600" windowHeight="11295" xr2:uid="{E0E4588E-4664-4B85-8DE9-D10EECA0DBCE}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -243,16 +243,16 @@
     <t>paraméter adatok</t>
   </si>
   <si>
-    <t>service/:lat/:lon</t>
-  </si>
-  <si>
-    <t>szélesség, hosszúság</t>
-  </si>
-  <si>
     <t>service/my-services</t>
   </si>
   <si>
     <t>A felhasználó szolgáltatásainak lekérése</t>
+  </si>
+  <si>
+    <t>service/:lat/:lon/:distance</t>
+  </si>
+  <si>
+    <t>szélesség, hosszúság, távolság</t>
   </si>
 </sst>
 </file>
@@ -1004,7 +1004,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1147,7 +1147,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>44</v>
@@ -1157,7 +1157,7 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="10" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -1222,13 +1222,13 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="26" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B14" s="16" t="s">
         <v>44</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D14" s="16"/>
       <c r="E14" s="17"/>

--- a/API_endpoint_list.xlsx
+++ b/API_endpoint_list.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Munka\13C_info2\HandyGo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Technikus\Documents\GitHub\HandyGo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A495160-372B-46DD-94DA-FFD3EA998441}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54EC6838-F73D-41FB-B70F-E95A1178C893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="1860" windowWidth="21600" windowHeight="11295" xr2:uid="{E0E4588E-4664-4B85-8DE9-D10EECA0DBCE}"/>
+    <workbookView xWindow="135" yWindow="1530" windowWidth="23130" windowHeight="11295" xr2:uid="{E0E4588E-4664-4B85-8DE9-D10EECA0DBCE}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -1004,7 +1004,7 @@
   <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1013,7 +1013,7 @@
     <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="41.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">

--- a/API_endpoint_list.xlsx
+++ b/API_endpoint_list.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Technikus\Documents\GitHub\HandyGo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Munka\13C_info2\HandyGo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54EC6838-F73D-41FB-B70F-E95A1178C893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E193EC0F-9944-4154-92A8-A0BB79E4641D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="135" yWindow="1530" windowWidth="23130" windowHeight="11295" xr2:uid="{E0E4588E-4664-4B85-8DE9-D10EECA0DBCE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E0E4588E-4664-4B85-8DE9-D10EECA0DBCE}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -37,14 +37,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="88">
   <si>
     <t>API elérési út</t>
   </si>
   <si>
-    <t>API mire van</t>
-  </si>
-  <si>
     <t>body adatok</t>
   </si>
   <si>
@@ -198,9 +195,6 @@
     <t>admin/services</t>
   </si>
   <si>
-    <t>admin/services/pending</t>
-  </si>
-  <si>
     <t>admin/services/:id/approve</t>
   </si>
   <si>
@@ -210,9 +204,6 @@
     <t>admin regisztráció</t>
   </si>
   <si>
-    <t>elfogadásra váró szolgáltatások</t>
-  </si>
-  <si>
     <t>szolgáltatás elfogadása</t>
   </si>
   <si>
@@ -249,10 +240,67 @@
     <t>A felhasználó szolgáltatásainak lekérése</t>
   </si>
   <si>
-    <t>service/:lat/:lon/:distance</t>
-  </si>
-  <si>
-    <t>szélesség, hosszúság, távolság</t>
+    <t>admin/stats</t>
+  </si>
+  <si>
+    <t>admin/bookings</t>
+  </si>
+  <si>
+    <t>admin/admins/:id</t>
+  </si>
+  <si>
+    <t>admin/admins</t>
+  </si>
+  <si>
+    <t>Statisztika lekérése</t>
+  </si>
+  <si>
+    <t>Összes foglalás lekérése</t>
+  </si>
+  <si>
+    <t>Admin fiók törlése</t>
+  </si>
+  <si>
+    <t>Admin felhasználók lekérése</t>
+  </si>
+  <si>
+    <t>auth/verify/:token</t>
+  </si>
+  <si>
+    <t>auth/extend-verification</t>
+  </si>
+  <si>
+    <t>auth/check-verification</t>
+  </si>
+  <si>
+    <t>A fiók hitelesítéséhez szükséges token(emailben)</t>
+  </si>
+  <si>
+    <t>A fiók hitelesítési állapotának lekérése</t>
+  </si>
+  <si>
+    <t>Új hitelesítési e-mail küldése</t>
+  </si>
+  <si>
+    <t>token</t>
+  </si>
+  <si>
+    <t>service/filter/:lat/:lon</t>
+  </si>
+  <si>
+    <t>szélesség, hosszúság</t>
+  </si>
+  <si>
+    <t>Szolgáltatás értékeléseinek lekérése</t>
+  </si>
+  <si>
+    <t>booking/delete/:id</t>
+  </si>
+  <si>
+    <t>Foglalás törlése</t>
+  </si>
+  <si>
+    <t>API célja</t>
   </si>
 </sst>
 </file>
@@ -295,7 +343,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -362,76 +410,31 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thick">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -534,37 +537,20 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
@@ -575,11 +561,13 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thick">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
@@ -588,75 +576,105 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="thin">
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thick">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -666,27 +684,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -1001,426 +1029,537 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2337CF4-35BF-4E47-9BF9-5BAF47D2C70E}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="46" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="41.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="28.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="33"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="34" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="25"/>
+      <c r="E4" s="26" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="27" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>80</v>
+      </c>
+      <c r="D5" s="29"/>
+      <c r="E5" s="30"/>
+      <c r="G5" s="12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" s="37"/>
+      <c r="E6" s="38"/>
+      <c r="G6" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11" s="7"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="7" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="13"/>
+      <c r="E14" s="14"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="14" t="s">
+      <c r="B15" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="E18" s="39" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="7"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="5"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B24" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D24" s="13"/>
+      <c r="E24" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="E26" s="21"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" s="5"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="5"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="5"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="22" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="10"/>
-      <c r="G2" s="15" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="8"/>
-      <c r="G3" s="15" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
+      <c r="B32" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="5"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="5"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B34" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E5" s="6"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="6"/>
-    </row>
-    <row r="7" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="10"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
+    </row>
+    <row r="35" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="10" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="6"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="E13" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="26" t="s">
-        <v>68</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="16" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="17"/>
-    </row>
-    <row r="15" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="E15" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="E16" s="10"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="1"/>
-      <c r="E17" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="1"/>
-      <c r="E18" s="6"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="6"/>
-    </row>
-    <row r="20" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20" s="16" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="D20" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="27" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>63</v>
-      </c>
-      <c r="E21" s="20"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="28" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="E22" s="6"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="D23" s="1"/>
-      <c r="E23" s="6"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="D24" s="1"/>
-      <c r="E24" s="6"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="B25" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>58</v>
-      </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="B26" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="B27" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="C27" s="21" t="s">
-        <v>62</v>
-      </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="11"/>
+      <c r="B35" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D35" s="3"/>
+      <c r="E35" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/API_endpoint_list.xlsx
+++ b/API_endpoint_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Munka\13C_info2\HandyGo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E193EC0F-9944-4154-92A8-A0BB79E4641D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB4CAA12-3515-42C0-8DB8-28D5A5CD298A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E0E4588E-4664-4B85-8DE9-D10EECA0DBCE}"/>
   </bookViews>
@@ -1032,7 +1032,7 @@
   <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
